--- a/docs/schemas.xlsx
+++ b/docs/schemas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Code\backend_shop_online\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF540890-ABFF-4C5A-A8B2-354532A9F9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CFFF3A-B645-402E-AD49-ADA71D796C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{5D5E0557-7A9C-4E9F-A880-B192869F3366}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
-    <sheet name="categories" sheetId="2" r:id="rId2"/>
-    <sheet name="types" sheetId="4" r:id="rId3"/>
-    <sheet name="brands" sheetId="5" r:id="rId4"/>
+    <sheet name="brands" sheetId="5" r:id="rId2"/>
+    <sheet name="categories" sheetId="2" r:id="rId3"/>
+    <sheet name="types" sheetId="4" r:id="rId4"/>
     <sheet name="products" sheetId="3" r:id="rId5"/>
     <sheet name="feedbacks" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
   <si>
     <t>email</t>
   </si>
@@ -104,16 +104,69 @@
   </si>
   <si>
     <t>brandId</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>api_url</t>
+  </si>
+  <si>
+    <t>api_url:</t>
+  </si>
+  <si>
+    <t>http//localhost:8080/users</t>
+  </si>
+  <si>
+    <t>http//localhost:8080/brands</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/categories</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/types</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/feedbacks</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>url_api</t>
+  </si>
+  <si>
+    <t>url_api upload file</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/products</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/uploads-products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,13 +189,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,35 +514,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2098102E-BC20-436C-B528-EE33BA0C6041}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -491,7 +559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -499,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -510,7 +578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -518,20 +586,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -540,27 +608,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F808A54E-17E5-4304-BCA2-EC681DAB2F3B}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B667B05-4E20-4C91-B6A4-0E7D34A24DD1}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -568,7 +644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -576,20 +652,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -598,27 +674,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F1D5A9-58F5-4577-9D5F-52BE48C9FF35}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F808A54E-17E5-4304-BCA2-EC681DAB2F3B}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F1D5A9-58F5-4577-9D5F-52BE48C9FF35}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -626,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -634,115 +784,74 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B667B05-4E20-4C91-B6A4-0E7D34A24DD1}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{D6A921F8-DE47-4DA8-9551-C746A5545F18}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7879A53D-BEB0-4135-BD39-293F6EF03F59}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -750,7 +859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -758,7 +867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -766,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -774,7 +883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -782,20 +891,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -804,9 +910,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -815,50 +921,73 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
+      <c r="B13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{6CA18A8E-ABEE-463D-A314-ECE8F38D748E}"/>
+    <hyperlink ref="F1" r:id="rId2" xr:uid="{23F747AA-F307-4AB7-B74C-5AC090125929}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D817179-B8ED-451D-B9A3-C845E7FD0FDB}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -866,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -874,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -882,7 +1011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -890,23 +1019,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{5E50BEC5-F44E-4337-BB3E-55C73C7CA817}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>